--- a/data/trans_bre/P14_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P14_2-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,99%</t>
+          <t>29,26%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,25%</t>
+          <t>-2,22%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 3,78</t>
+          <t>-0,92; 3,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 3,26</t>
+          <t>-3,99; 3,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 116,72</t>
+          <t>-17,54; 107,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 29,35</t>
+          <t>-25,42; 27,77</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-17,84%</t>
+          <t>-15,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,34%</t>
+          <t>-9,54%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 1,64</t>
+          <t>-2,74; 1,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 2,4</t>
+          <t>-5,49; 2,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-55,7; 63,3</t>
+          <t>-53,61; 63,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,07; 22,1</t>
+          <t>-34,71; 23,43</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-30,64%</t>
+          <t>-19,87%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>59,21%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 2,25</t>
+          <t>-4,55; 2,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 9,04</t>
+          <t>-1,89; 11,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 283,72</t>
+          <t>-90,75; 407,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 183,34</t>
+          <t>-22,9; 286,07</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>-0,94%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,97</t>
+          <t>-1,14; 1,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,14</t>
+          <t>-2,38; 2,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,36; 55,65</t>
+          <t>-23,86; 57,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 19,18</t>
+          <t>-17,14; 24,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P14_2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>29,26%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-2,22%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.29209222208188</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1769763209819003</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.2883605111417609</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.01345663059053947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 3,6</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,99; 3,09</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-17,54; 107,71</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-25,42; 27,77</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.8231970306203203</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.854950439189687</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.1590176608080024</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.2520904038353917</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.671209746956474</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.27065582615705</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1.112044160945336</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.2884563365450133</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,27</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-15,29%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-9,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 1,65</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,49; 2,59</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-53,61; 63,05</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-34,71; 23,43</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.7704110554683161</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.071378323925862</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1865746045028705</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.08220530754895522</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,04</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-19,87%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>59,21%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.955992356689907</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.138465441359853</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.5614460359603883</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.3339085175789778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,55; 2,66</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 11,26</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-90,75; 407,33</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-22,9; 286,07</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.535480482434551</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.818486689520249</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.5758652211664548</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.262819405370729</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,98%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,94%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.9577860054055414</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.819412710039624</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.3000005059803861</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.5411829410367742</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 1,92</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,38; 2,62</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-23,86; 57,25</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-17,14; 24,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.278141552333697</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.023976449227222</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.9288043753513351</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2285846210021524</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.215840514214261</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.8625452260494</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>3.015759732790642</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>2.755432281300275</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.2564107911590618</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.009395134901069024</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.06130109471117554</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.0007601629896661348</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.279898037846647</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.332969884488812</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2489908059793829</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1707903841834488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.840230528075088</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.744187739994663</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.5486590902517315</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.2582029157390756</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
